--- a/src/api/app/opcua-methods/asm-reports/data/acmYearTemplate.xlsx
+++ b/src/api/app/opcua-methods/asm-reports/data/acmYearTemplate.xlsx
@@ -5235,7 +5235,7 @@
   <dimension ref="B1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
